--- a/01_Sept_Code/04_QSTS_Solar_Coeff/03_FLAY/Keep_Track_RUNs.xlsx
+++ b/01_Sept_Code/04_QSTS_Solar_Coeff/03_FLAY/Keep_Track_RUNs.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Flay" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -64,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,12 +77,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,20 +108,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,7 +447,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +473,9 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3">
+        <v>42429</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
